--- a/posesiones/1463358.xlsx
+++ b/posesiones/1463358.xlsx
@@ -1934,10 +1934,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1978,7 +1978,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -2028,7 +2028,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -2078,7 +2078,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2128,7 +2128,7 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <v>13</v>
@@ -2181,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2231,7 +2231,7 @@
         <v>1</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R9">
         <v>9</v>
@@ -2281,7 +2281,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -2331,7 +2331,7 @@
         <v>1</v>
       </c>
       <c r="Q11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R11">
         <v>22</v>
@@ -2381,7 +2381,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2431,7 +2431,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -2481,7 +2481,7 @@
         <v>1</v>
       </c>
       <c r="Q14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R14">
         <v>5</v>
@@ -2531,7 +2531,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -2581,7 +2581,7 @@
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R16">
         <v>16</v>
@@ -2631,7 +2631,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -2681,7 +2681,7 @@
         <v>1</v>
       </c>
       <c r="Q18">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R18">
         <v>18</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -2781,7 +2781,7 @@
         <v>1</v>
       </c>
       <c r="Q20">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R20">
         <v>23</v>
@@ -2831,7 +2831,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -2925,7 +2925,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -2972,7 +2972,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -3022,7 +3022,7 @@
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R25">
         <v>28</v>
@@ -3072,7 +3072,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -3122,7 +3122,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -3172,7 +3172,7 @@
         <v>1</v>
       </c>
       <c r="Q28">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R28">
         <v>16</v>
@@ -3222,7 +3222,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -3272,7 +3272,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -3322,7 +3322,7 @@
         <v>1</v>
       </c>
       <c r="Q31">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R31">
         <v>21</v>
@@ -3372,7 +3372,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -3422,7 +3422,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -3472,7 +3472,7 @@
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R34">
         <v>23</v>
@@ -3525,7 +3525,7 @@
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R35">
         <v>10</v>
@@ -3578,7 +3578,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -3625,7 +3625,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -3722,7 +3722,7 @@
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R39">
         <v>20</v>
@@ -3772,7 +3772,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -3822,7 +3822,7 @@
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R41">
         <v>18</v>
@@ -3875,7 +3875,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -3922,7 +3922,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -3972,7 +3972,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -4022,7 +4022,7 @@
         <v>1</v>
       </c>
       <c r="Q45">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R45">
         <v>18</v>
@@ -4072,7 +4072,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -4119,7 +4119,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -4169,7 +4169,7 @@
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R48">
         <v>17</v>
@@ -4222,7 +4222,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -4272,7 +4272,7 @@
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R50">
         <v>8</v>
@@ -4325,7 +4325,7 @@
         <v>1</v>
       </c>
       <c r="Q51">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R51">
         <v>11</v>
@@ -4378,7 +4378,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -4428,7 +4428,7 @@
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R53">
         <v>12</v>
@@ -4481,7 +4481,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -4531,7 +4531,7 @@
         <v>1</v>
       </c>
       <c r="Q55">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R55">
         <v>7</v>
@@ -4584,7 +4584,7 @@
         <v>1</v>
       </c>
       <c r="Q56">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R56">
         <v>20</v>
@@ -4637,7 +4637,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -4687,7 +4687,7 @@
         <v>1</v>
       </c>
       <c r="Q58">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R58">
         <v>14</v>
@@ -4740,7 +4740,7 @@
         <v>1</v>
       </c>
       <c r="Q59">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R59">
         <v>15</v>
@@ -4790,7 +4790,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -4840,7 +4840,7 @@
         <v>1</v>
       </c>
       <c r="Q61">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R61">
         <v>14</v>
@@ -4893,7 +4893,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -4943,7 +4943,7 @@
         <v>1</v>
       </c>
       <c r="Q63">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R63">
         <v>6</v>
@@ -4993,7 +4993,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -5040,7 +5040,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -5093,7 +5093,7 @@
         <v>1</v>
       </c>
       <c r="Q66">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R66">
         <v>41</v>
@@ -5143,7 +5143,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -5190,7 +5190,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -5237,7 +5237,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -5284,7 +5284,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="71" spans="1:18">
@@ -5331,7 +5331,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -5381,7 +5381,7 @@
         <v>1</v>
       </c>
       <c r="Q72">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R72">
         <v>12</v>
@@ -5431,7 +5431,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -5481,7 +5481,7 @@
         <v>1</v>
       </c>
       <c r="Q74">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R74">
         <v>7</v>
@@ -5534,7 +5534,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="76" spans="1:18">
@@ -5584,7 +5584,7 @@
         <v>1</v>
       </c>
       <c r="Q76">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R76">
         <v>5</v>
@@ -5634,7 +5634,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -5684,7 +5684,7 @@
         <v>1</v>
       </c>
       <c r="Q78">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R78">
         <v>4</v>
@@ -5734,7 +5734,7 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -5781,7 +5781,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -5828,7 +5828,7 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="82" spans="1:18">
@@ -5875,7 +5875,7 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="83" spans="1:18">
@@ -5922,7 +5922,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -5972,7 +5972,7 @@
         <v>1</v>
       </c>
       <c r="Q84">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R84">
         <v>13</v>
@@ -6022,7 +6022,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -6072,7 +6072,7 @@
         <v>1</v>
       </c>
       <c r="Q86">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R86">
         <v>2</v>
@@ -6125,7 +6125,7 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -6175,7 +6175,7 @@
         <v>1</v>
       </c>
       <c r="Q88">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R88">
         <v>11</v>
@@ -6228,7 +6228,7 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -6278,7 +6278,7 @@
         <v>1</v>
       </c>
       <c r="Q90">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R90">
         <v>16</v>
@@ -6331,7 +6331,7 @@
         <v>1</v>
       </c>
       <c r="Q91">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R91">
         <v>13</v>
@@ -6384,7 +6384,7 @@
         <v>1</v>
       </c>
       <c r="Q92">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R92">
         <v>14</v>
@@ -6434,7 +6434,7 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -6484,7 +6484,7 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -6534,7 +6534,7 @@
         <v>1</v>
       </c>
       <c r="Q95">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R95">
         <v>23</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -6631,7 +6631,7 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -6681,7 +6681,7 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -6728,7 +6728,7 @@
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="100" spans="1:18">
@@ -6775,7 +6775,7 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="101" spans="1:18">
@@ -6822,7 +6822,7 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="102" spans="1:18">
@@ -6869,7 +6869,7 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="103" spans="1:18">
@@ -6916,7 +6916,7 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="104" spans="1:18">
@@ -6966,7 +6966,7 @@
         <v>1</v>
       </c>
       <c r="Q104">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R104">
         <v>20</v>
@@ -7016,7 +7016,7 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="106" spans="1:18">
@@ -7063,7 +7063,7 @@
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="107" spans="1:18">
@@ -7113,7 +7113,7 @@
         <v>1</v>
       </c>
       <c r="Q107">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R107">
         <v>11</v>
@@ -7166,7 +7166,7 @@
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="109" spans="1:18">
@@ -7213,7 +7213,7 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="110" spans="1:18">
@@ -7260,7 +7260,7 @@
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="111" spans="1:18">
@@ -7310,7 +7310,7 @@
         <v>1</v>
       </c>
       <c r="Q111">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R111">
         <v>18</v>
@@ -7360,7 +7360,7 @@
         <v>0</v>
       </c>
       <c r="Q112">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="113" spans="1:18">
@@ -7410,7 +7410,7 @@
         <v>1</v>
       </c>
       <c r="Q113">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R113">
         <v>1</v>
@@ -7466,7 +7466,7 @@
         <v>1</v>
       </c>
       <c r="Q114">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R114">
         <v>3</v>
@@ -7510,10 +7510,10 @@
         <v>1</v>
       </c>
       <c r="P115" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q115">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="116" spans="1:18">
@@ -7554,10 +7554,10 @@
         <v>1</v>
       </c>
       <c r="P116" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q116">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="117" spans="1:18">
@@ -7604,7 +7604,7 @@
         <v>0</v>
       </c>
       <c r="Q117">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="118" spans="1:18">
@@ -7654,7 +7654,7 @@
         <v>0</v>
       </c>
       <c r="Q118">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="119" spans="1:18">
@@ -7704,7 +7704,7 @@
         <v>1</v>
       </c>
       <c r="Q119">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R119">
         <v>25</v>
@@ -7754,7 +7754,7 @@
         <v>0</v>
       </c>
       <c r="Q120">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="121" spans="1:18">
@@ -7801,7 +7801,7 @@
         <v>0</v>
       </c>
       <c r="Q121">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="122" spans="1:18">
@@ -7854,7 +7854,7 @@
         <v>1</v>
       </c>
       <c r="Q122">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R122">
         <v>21</v>
@@ -7904,7 +7904,7 @@
         <v>0</v>
       </c>
       <c r="Q123">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="124" spans="1:18">
@@ -7951,7 +7951,7 @@
         <v>0</v>
       </c>
       <c r="Q124">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="125" spans="1:18">
@@ -8001,7 +8001,7 @@
         <v>0</v>
       </c>
       <c r="Q125">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="126" spans="1:18">
@@ -8051,7 +8051,7 @@
         <v>1</v>
       </c>
       <c r="Q126">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R126">
         <v>15</v>
@@ -8101,7 +8101,7 @@
         <v>0</v>
       </c>
       <c r="Q127">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="128" spans="1:18">
@@ -8148,7 +8148,7 @@
         <v>0</v>
       </c>
       <c r="Q128">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="129" spans="1:18">
@@ -8195,7 +8195,7 @@
         <v>0</v>
       </c>
       <c r="Q129">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="130" spans="1:18">
@@ -8242,7 +8242,7 @@
         <v>0</v>
       </c>
       <c r="Q130">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="131" spans="1:18">
@@ -8292,7 +8292,7 @@
         <v>1</v>
       </c>
       <c r="Q131">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R131">
         <v>10</v>
@@ -8342,7 +8342,7 @@
         <v>0</v>
       </c>
       <c r="Q132">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="133" spans="1:18">
@@ -8389,7 +8389,7 @@
         <v>0</v>
       </c>
       <c r="Q133">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="134" spans="1:18">
@@ -8436,7 +8436,7 @@
         <v>0</v>
       </c>
       <c r="Q134">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="135" spans="1:18">
@@ -8486,7 +8486,7 @@
         <v>1</v>
       </c>
       <c r="Q135">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R135">
         <v>25</v>
@@ -8539,7 +8539,7 @@
         <v>1</v>
       </c>
       <c r="Q136">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R136">
         <v>17</v>
@@ -8592,7 +8592,7 @@
         <v>1</v>
       </c>
       <c r="Q137">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R137">
         <v>20</v>
@@ -8642,7 +8642,7 @@
         <v>0</v>
       </c>
       <c r="Q138">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="139" spans="1:18">
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="Q139">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="140" spans="1:18">
@@ -8736,7 +8736,7 @@
         <v>0</v>
       </c>
       <c r="Q140">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="141" spans="1:18">
@@ -8783,7 +8783,7 @@
         <v>0</v>
       </c>
       <c r="Q141">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="142" spans="1:18">
@@ -8833,7 +8833,7 @@
         <v>0</v>
       </c>
       <c r="Q142">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="143" spans="1:18">
@@ -8883,7 +8883,7 @@
         <v>1</v>
       </c>
       <c r="Q143">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R143">
         <v>29</v>
@@ -8933,7 +8933,7 @@
         <v>0</v>
       </c>
       <c r="Q144">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="145" spans="1:18">
@@ -8983,7 +8983,7 @@
         <v>0</v>
       </c>
       <c r="Q145">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="146" spans="1:18">
@@ -9030,7 +9030,7 @@
         <v>0</v>
       </c>
       <c r="Q146">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="147" spans="1:18">
@@ -9080,7 +9080,7 @@
         <v>0</v>
       </c>
       <c r="Q147">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="148" spans="1:18">
@@ -9130,7 +9130,7 @@
         <v>1</v>
       </c>
       <c r="Q148">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R148">
         <v>27</v>
@@ -9180,7 +9180,7 @@
         <v>0</v>
       </c>
       <c r="Q149">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="150" spans="1:18">
@@ -9227,7 +9227,7 @@
         <v>0</v>
       </c>
       <c r="Q150">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="151" spans="1:18">
@@ -9277,7 +9277,7 @@
         <v>1</v>
       </c>
       <c r="Q151">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R151">
         <v>0</v>
@@ -9324,7 +9324,7 @@
         <v>0</v>
       </c>
       <c r="Q152">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="153" spans="1:18">
@@ -9374,7 +9374,7 @@
         <v>1</v>
       </c>
       <c r="Q153">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R153">
         <v>26</v>
@@ -9427,7 +9427,7 @@
         <v>1</v>
       </c>
       <c r="Q154">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R154">
         <v>14</v>
@@ -9477,7 +9477,7 @@
         <v>0</v>
       </c>
       <c r="Q155">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="156" spans="1:18">
@@ -9524,7 +9524,7 @@
         <v>0</v>
       </c>
       <c r="Q156">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="157" spans="1:18">
@@ -9574,7 +9574,7 @@
         <v>1</v>
       </c>
       <c r="Q157">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R157">
         <v>21</v>
@@ -9627,7 +9627,7 @@
         <v>0</v>
       </c>
       <c r="Q158">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="159" spans="1:18">
@@ -9677,7 +9677,7 @@
         <v>1</v>
       </c>
       <c r="Q159">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R159">
         <v>15</v>
@@ -9730,7 +9730,7 @@
         <v>0</v>
       </c>
       <c r="Q160">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="161" spans="1:18">
@@ -9777,7 +9777,7 @@
         <v>0</v>
       </c>
       <c r="Q161">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="162" spans="1:18">
@@ -9827,7 +9827,7 @@
         <v>0</v>
       </c>
       <c r="Q162">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="163" spans="1:18">
@@ -9877,7 +9877,7 @@
         <v>1</v>
       </c>
       <c r="Q163">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R163">
         <v>7</v>
@@ -9927,7 +9927,7 @@
         <v>0</v>
       </c>
       <c r="Q164">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="165" spans="1:18">
@@ -9974,7 +9974,7 @@
         <v>0</v>
       </c>
       <c r="Q165">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="166" spans="1:18">
@@ -10021,7 +10021,7 @@
         <v>0</v>
       </c>
       <c r="Q166">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="167" spans="1:18">
@@ -10068,7 +10068,7 @@
         <v>0</v>
       </c>
       <c r="Q167">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="168" spans="1:18">
@@ -10118,7 +10118,7 @@
         <v>1</v>
       </c>
       <c r="Q168">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R168">
         <v>0</v>
@@ -10171,7 +10171,7 @@
         <v>0</v>
       </c>
       <c r="Q169">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="170" spans="1:18">
@@ -10218,7 +10218,7 @@
         <v>0</v>
       </c>
       <c r="Q170">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="171" spans="1:18">
@@ -10265,7 +10265,7 @@
         <v>0</v>
       </c>
       <c r="Q171">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="172" spans="1:18">
@@ -10312,7 +10312,7 @@
         <v>0</v>
       </c>
       <c r="Q172">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="173" spans="1:18">
@@ -10359,7 +10359,7 @@
         <v>0</v>
       </c>
       <c r="Q173">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="174" spans="1:18">
@@ -10406,7 +10406,7 @@
         <v>0</v>
       </c>
       <c r="Q174">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="175" spans="1:18">
@@ -10453,7 +10453,7 @@
         <v>0</v>
       </c>
       <c r="Q175">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="176" spans="1:18">
@@ -10500,7 +10500,7 @@
         <v>0</v>
       </c>
       <c r="Q176">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="177" spans="1:18">
@@ -10547,7 +10547,7 @@
         <v>0</v>
       </c>
       <c r="Q177">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="178" spans="1:18">
@@ -10597,7 +10597,7 @@
         <v>0</v>
       </c>
       <c r="Q178">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="179" spans="1:18">
@@ -10647,7 +10647,7 @@
         <v>1</v>
       </c>
       <c r="Q179">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R179">
         <v>20</v>
@@ -10700,7 +10700,7 @@
         <v>1</v>
       </c>
       <c r="Q180">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R180">
         <v>16</v>
@@ -10750,7 +10750,7 @@
         <v>0</v>
       </c>
       <c r="Q181">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="182" spans="1:18">
@@ -10794,7 +10794,7 @@
         <v>0</v>
       </c>
       <c r="Q182">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="183" spans="1:18">
@@ -10844,7 +10844,7 @@
         <v>1</v>
       </c>
       <c r="Q183">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R183">
         <v>18</v>
@@ -10894,7 +10894,7 @@
         <v>0</v>
       </c>
       <c r="Q184">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="185" spans="1:18">
@@ -10941,7 +10941,7 @@
         <v>0</v>
       </c>
       <c r="Q185">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="186" spans="1:18">
@@ -10988,7 +10988,7 @@
         <v>0</v>
       </c>
       <c r="Q186">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="187" spans="1:18">
@@ -11038,7 +11038,7 @@
         <v>1</v>
       </c>
       <c r="Q187">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R187">
         <v>0</v>
@@ -11088,7 +11088,7 @@
         <v>0</v>
       </c>
       <c r="Q188">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="189" spans="1:18">
@@ -11135,7 +11135,7 @@
         <v>0</v>
       </c>
       <c r="Q189">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="190" spans="1:18">
@@ -11185,7 +11185,7 @@
         <v>1</v>
       </c>
       <c r="Q190">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R190">
         <v>15</v>
@@ -11235,7 +11235,7 @@
         <v>0</v>
       </c>
       <c r="Q191">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="192" spans="1:18">
@@ -11285,7 +11285,7 @@
         <v>1</v>
       </c>
       <c r="Q192">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R192">
         <v>12</v>
@@ -11338,7 +11338,7 @@
         <v>0</v>
       </c>
       <c r="Q193">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="194" spans="1:18">
@@ -11385,7 +11385,7 @@
         <v>0</v>
       </c>
       <c r="Q194">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="195" spans="1:18">
@@ -11432,7 +11432,7 @@
         <v>0</v>
       </c>
       <c r="Q195">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="196" spans="1:18">
@@ -11479,7 +11479,7 @@
         <v>0</v>
       </c>
       <c r="Q196">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="197" spans="1:18">
@@ -11529,7 +11529,7 @@
         <v>0</v>
       </c>
       <c r="Q197">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="198" spans="1:18">
@@ -11576,7 +11576,7 @@
         <v>0</v>
       </c>
       <c r="Q198">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="199" spans="1:18">
@@ -11626,7 +11626,7 @@
         <v>0</v>
       </c>
       <c r="Q199">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="200" spans="1:18">
@@ -11676,7 +11676,7 @@
         <v>1</v>
       </c>
       <c r="Q200">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R200">
         <v>22</v>
@@ -11726,7 +11726,7 @@
         <v>0</v>
       </c>
       <c r="Q201">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="202" spans="1:18">
@@ -11773,7 +11773,7 @@
         <v>0</v>
       </c>
       <c r="Q202">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="203" spans="1:18">
@@ -11820,7 +11820,7 @@
         <v>0</v>
       </c>
       <c r="Q203">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="204" spans="1:18">
@@ -11870,7 +11870,7 @@
         <v>1</v>
       </c>
       <c r="Q204">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R204">
         <v>4</v>
@@ -11923,7 +11923,7 @@
         <v>1</v>
       </c>
       <c r="Q205">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R205">
         <v>16</v>
@@ -11976,7 +11976,7 @@
         <v>0</v>
       </c>
       <c r="Q206">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="207" spans="1:18">
@@ -12026,7 +12026,7 @@
         <v>1</v>
       </c>
       <c r="Q207">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R207">
         <v>6</v>
@@ -12076,7 +12076,7 @@
         <v>0</v>
       </c>
       <c r="Q208">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="209" spans="1:18">
@@ -12120,7 +12120,7 @@
         <v>0</v>
       </c>
       <c r="Q209">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="210" spans="1:18">
@@ -12167,7 +12167,7 @@
         <v>0</v>
       </c>
       <c r="Q210">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="211" spans="1:18">
@@ -12214,7 +12214,7 @@
         <v>0</v>
       </c>
       <c r="Q211">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="212" spans="1:18">
@@ -12261,7 +12261,7 @@
         <v>0</v>
       </c>
       <c r="Q212">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="213" spans="1:18">
@@ -12308,7 +12308,7 @@
         <v>0</v>
       </c>
       <c r="Q213">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="214" spans="1:18">
@@ -12355,7 +12355,7 @@
         <v>0</v>
       </c>
       <c r="Q214">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="215" spans="1:18">
@@ -12402,7 +12402,7 @@
         <v>0</v>
       </c>
       <c r="Q215">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="216" spans="1:18">
@@ -12449,7 +12449,7 @@
         <v>0</v>
       </c>
       <c r="Q216">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="217" spans="1:18">
@@ -12499,7 +12499,7 @@
         <v>1</v>
       </c>
       <c r="Q217">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R217">
         <v>28</v>
@@ -12552,7 +12552,7 @@
         <v>0</v>
       </c>
       <c r="Q218">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="219" spans="1:18">
@@ -12599,7 +12599,7 @@
         <v>0</v>
       </c>
       <c r="Q219">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="220" spans="1:18">
@@ -12646,7 +12646,7 @@
         <v>0</v>
       </c>
       <c r="Q220">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="221" spans="1:18">
@@ -12696,7 +12696,7 @@
         <v>0</v>
       </c>
       <c r="Q221">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="222" spans="1:18">
@@ -12743,7 +12743,7 @@
         <v>0</v>
       </c>
       <c r="Q222">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="223" spans="1:18">
@@ -12793,7 +12793,7 @@
         <v>0</v>
       </c>
       <c r="Q223">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="224" spans="1:18">
@@ -12840,7 +12840,7 @@
         <v>0</v>
       </c>
       <c r="Q224">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="225" spans="1:18">
@@ -12887,7 +12887,7 @@
         <v>0</v>
       </c>
       <c r="Q225">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="226" spans="1:18">
@@ -12934,7 +12934,7 @@
         <v>0</v>
       </c>
       <c r="Q226">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="227" spans="1:18">
@@ -12984,7 +12984,7 @@
         <v>1</v>
       </c>
       <c r="Q227">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R227">
         <v>9</v>
@@ -13037,7 +13037,7 @@
         <v>0</v>
       </c>
       <c r="Q228">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="229" spans="1:18">
@@ -13084,7 +13084,7 @@
         <v>0</v>
       </c>
       <c r="Q229">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="230" spans="1:18">
@@ -13131,7 +13131,7 @@
         <v>0</v>
       </c>
       <c r="Q230">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="231" spans="1:18">
@@ -13178,7 +13178,7 @@
         <v>0</v>
       </c>
       <c r="Q231">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="232" spans="1:18">
@@ -13225,7 +13225,7 @@
         <v>0</v>
       </c>
       <c r="Q232">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="233" spans="1:18">
@@ -13272,7 +13272,7 @@
         <v>0</v>
       </c>
       <c r="Q233">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="234" spans="1:18">
@@ -13319,7 +13319,7 @@
         <v>0</v>
       </c>
       <c r="Q234">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="235" spans="1:18">
@@ -13366,7 +13366,7 @@
         <v>0</v>
       </c>
       <c r="Q235">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="236" spans="1:18">
@@ -13413,7 +13413,7 @@
         <v>0</v>
       </c>
       <c r="Q236">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="237" spans="1:18">
@@ -13460,7 +13460,7 @@
         <v>0</v>
       </c>
       <c r="Q237">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="238" spans="1:18">
@@ -13507,7 +13507,7 @@
         <v>0</v>
       </c>
       <c r="Q238">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="239" spans="1:18">
@@ -13554,7 +13554,7 @@
         <v>0</v>
       </c>
       <c r="Q239">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="240" spans="1:18">
@@ -13604,7 +13604,7 @@
         <v>1</v>
       </c>
       <c r="Q240">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R240">
         <v>13</v>
@@ -13657,7 +13657,7 @@
         <v>1</v>
       </c>
       <c r="Q241">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R241">
         <v>7</v>
@@ -13710,7 +13710,7 @@
         <v>1</v>
       </c>
       <c r="Q242">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R242">
         <v>13</v>
@@ -13763,7 +13763,7 @@
         <v>0</v>
       </c>
       <c r="Q243">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="244" spans="1:18">
@@ -13813,7 +13813,7 @@
         <v>1</v>
       </c>
       <c r="Q244">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="R244">
         <v>12</v>
@@ -13863,7 +13863,7 @@
         <v>0</v>
       </c>
       <c r="Q245">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="246" spans="1:18">
@@ -13916,7 +13916,7 @@
         <v>1</v>
       </c>
       <c r="Q246">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="R246">
         <v>13</v>
@@ -13966,7 +13966,7 @@
         <v>0</v>
       </c>
       <c r="Q247">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="248" spans="1:18">
@@ -14013,7 +14013,7 @@
         <v>0</v>
       </c>
       <c r="Q248">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="249" spans="1:18">
@@ -14060,7 +14060,7 @@
         <v>0</v>
       </c>
       <c r="Q249">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="250" spans="1:18">
@@ -14110,7 +14110,7 @@
         <v>1</v>
       </c>
       <c r="Q250">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="R250">
         <v>11</v>
@@ -14160,7 +14160,7 @@
         <v>0</v>
       </c>
       <c r="Q251">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="252" spans="1:18">
@@ -14207,7 +14207,7 @@
         <v>0</v>
       </c>
       <c r="Q252">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="253" spans="1:18">
@@ -14254,7 +14254,7 @@
         <v>0</v>
       </c>
       <c r="Q253">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="254" spans="1:18">
@@ -14301,7 +14301,7 @@
         <v>0</v>
       </c>
       <c r="Q254">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="255" spans="1:18">
@@ -14348,7 +14348,7 @@
         <v>0</v>
       </c>
       <c r="Q255">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="256" spans="1:18">
@@ -14395,7 +14395,7 @@
         <v>0</v>
       </c>
       <c r="Q256">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="257" spans="1:18">
@@ -14445,7 +14445,7 @@
         <v>0</v>
       </c>
       <c r="Q257">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="258" spans="1:18">
@@ -14492,7 +14492,7 @@
         <v>0</v>
       </c>
       <c r="Q258">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="259" spans="1:18">
@@ -14539,7 +14539,7 @@
         <v>0</v>
       </c>
       <c r="Q259">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="260" spans="1:18">
@@ -14589,7 +14589,7 @@
         <v>0</v>
       </c>
       <c r="Q260">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="261" spans="1:18">
@@ -14636,7 +14636,7 @@
         <v>1</v>
       </c>
       <c r="Q261">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="R261">
         <v>16</v>
@@ -14689,7 +14689,7 @@
         <v>1</v>
       </c>
       <c r="Q262">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="R262">
         <v>16</v>
@@ -14742,7 +14742,7 @@
         <v>0</v>
       </c>
       <c r="Q263">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="264" spans="1:18">
@@ -14792,7 +14792,7 @@
         <v>1</v>
       </c>
       <c r="Q264">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="R264">
         <v>14</v>
@@ -14842,7 +14842,7 @@
         <v>0</v>
       </c>
       <c r="Q265">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="266" spans="1:18">
@@ -14889,7 +14889,7 @@
         <v>0</v>
       </c>
       <c r="Q266">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="267" spans="1:18">
@@ -14939,7 +14939,7 @@
         <v>0</v>
       </c>
       <c r="Q267">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="268" spans="1:18">
@@ -14989,7 +14989,7 @@
         <v>1</v>
       </c>
       <c r="Q268">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="R268">
         <v>20</v>
@@ -15036,7 +15036,7 @@
         <v>0</v>
       </c>
       <c r="Q269">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="270" spans="1:18">
@@ -15083,7 +15083,7 @@
         <v>0</v>
       </c>
       <c r="Q270">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="271" spans="1:18">
@@ -15130,7 +15130,7 @@
         <v>0</v>
       </c>
       <c r="Q271">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="272" spans="1:18">
@@ -15180,7 +15180,7 @@
         <v>1</v>
       </c>
       <c r="Q272">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="R272">
         <v>12</v>
@@ -15230,7 +15230,7 @@
         <v>0</v>
       </c>
       <c r="Q273">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="274" spans="1:18">
@@ -15277,7 +15277,7 @@
         <v>0</v>
       </c>
       <c r="Q274">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="275" spans="1:18">
@@ -15324,7 +15324,7 @@
         <v>0</v>
       </c>
       <c r="Q275">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="276" spans="1:18">
@@ -15371,7 +15371,7 @@
         <v>0</v>
       </c>
       <c r="Q276">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="277" spans="1:18">
@@ -15418,7 +15418,7 @@
         <v>0</v>
       </c>
       <c r="Q277">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="278" spans="1:18">
@@ -15468,7 +15468,7 @@
         <v>1</v>
       </c>
       <c r="Q278">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="R278">
         <v>14</v>
@@ -15512,10 +15512,10 @@
         <v>1</v>
       </c>
       <c r="P279" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q279">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="280" spans="1:18">
@@ -15562,7 +15562,7 @@
         <v>0</v>
       </c>
       <c r="Q280">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="281" spans="1:18">
@@ -15609,7 +15609,7 @@
         <v>0</v>
       </c>
       <c r="Q281">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="282" spans="1:18">
@@ -15656,7 +15656,7 @@
         <v>0</v>
       </c>
       <c r="Q282">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="283" spans="1:18">
@@ -15703,7 +15703,7 @@
         <v>0</v>
       </c>
       <c r="Q283">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="284" spans="1:18">
@@ -15750,7 +15750,7 @@
         <v>0</v>
       </c>
       <c r="Q284">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="285" spans="1:18">
@@ -15797,7 +15797,7 @@
         <v>0</v>
       </c>
       <c r="Q285">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="286" spans="1:18">
@@ -15844,7 +15844,7 @@
         <v>0</v>
       </c>
       <c r="Q286">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="287" spans="1:18">
@@ -15891,7 +15891,7 @@
         <v>0</v>
       </c>
       <c r="Q287">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="288" spans="1:18">
@@ -15938,7 +15938,7 @@
         <v>0</v>
       </c>
       <c r="Q288">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="289" spans="1:18">
@@ -15985,7 +15985,7 @@
         <v>0</v>
       </c>
       <c r="Q289">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="290" spans="1:18">
@@ -16026,10 +16026,10 @@
         <v>1</v>
       </c>
       <c r="P290" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q290">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="291" spans="1:18">
@@ -16076,7 +16076,7 @@
         <v>0</v>
       </c>
       <c r="Q291">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="292" spans="1:18">
@@ -16123,7 +16123,7 @@
         <v>0</v>
       </c>
       <c r="Q292">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="293" spans="1:18">
@@ -16170,7 +16170,7 @@
         <v>0</v>
       </c>
       <c r="Q293">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="294" spans="1:18">
@@ -16217,7 +16217,7 @@
         <v>0</v>
       </c>
       <c r="Q294">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="295" spans="1:18">
@@ -16267,7 +16267,7 @@
         <v>1</v>
       </c>
       <c r="Q295">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="R295">
         <v>19</v>
@@ -16320,7 +16320,7 @@
         <v>1</v>
       </c>
       <c r="Q296">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="R296">
         <v>7</v>
@@ -16370,7 +16370,7 @@
         <v>0</v>
       </c>
       <c r="Q297">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="298" spans="1:18">
@@ -16420,7 +16420,7 @@
         <v>0</v>
       </c>
       <c r="Q298">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="299" spans="1:18">
@@ -16470,7 +16470,7 @@
         <v>1</v>
       </c>
       <c r="Q299">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="R299">
         <v>11</v>
@@ -16523,7 +16523,7 @@
         <v>0</v>
       </c>
       <c r="Q300">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="301" spans="1:18">
@@ -16573,7 +16573,7 @@
         <v>1</v>
       </c>
       <c r="Q301">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="R301">
         <v>21</v>
@@ -16626,7 +16626,7 @@
         <v>1</v>
       </c>
       <c r="Q302">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="R302">
         <v>19</v>
@@ -16676,7 +16676,7 @@
         <v>0</v>
       </c>
       <c r="Q303">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="304" spans="1:18">
@@ -16723,7 +16723,7 @@
         <v>0</v>
       </c>
       <c r="Q304">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="305" spans="1:18">
@@ -16770,7 +16770,7 @@
         <v>0</v>
       </c>
       <c r="Q305">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="306" spans="1:18">
@@ -16820,7 +16820,7 @@
         <v>1</v>
       </c>
       <c r="Q306">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="R306">
         <v>20</v>
@@ -16870,7 +16870,7 @@
         <v>0</v>
       </c>
       <c r="Q307">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="308" spans="1:18">
@@ -16917,7 +16917,7 @@
         <v>0</v>
       </c>
       <c r="Q308">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="309" spans="1:18">
@@ -16964,7 +16964,7 @@
         <v>0</v>
       </c>
       <c r="Q309">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="310" spans="1:18">
@@ -17014,7 +17014,7 @@
         <v>1</v>
       </c>
       <c r="Q310">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R310">
         <v>21</v>
@@ -17064,7 +17064,7 @@
         <v>0</v>
       </c>
       <c r="Q311">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="312" spans="1:18">
@@ -17111,7 +17111,7 @@
         <v>0</v>
       </c>
       <c r="Q312">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="313" spans="1:18">
@@ -17158,7 +17158,7 @@
         <v>0</v>
       </c>
       <c r="Q313">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="314" spans="1:18">
@@ -17208,7 +17208,7 @@
         <v>1</v>
       </c>
       <c r="Q314">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R314">
         <v>23</v>
@@ -17261,7 +17261,7 @@
         <v>0</v>
       </c>
       <c r="Q315">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="316" spans="1:18">
@@ -17311,7 +17311,7 @@
         <v>1</v>
       </c>
       <c r="Q316">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R316">
         <v>11</v>
@@ -17361,7 +17361,7 @@
         <v>0</v>
       </c>
       <c r="Q317">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="318" spans="1:18">
@@ -17408,7 +17408,7 @@
         <v>0</v>
       </c>
       <c r="Q318">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="319" spans="1:18">
@@ -17458,7 +17458,7 @@
         <v>1</v>
       </c>
       <c r="Q319">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R319">
         <v>0</v>
@@ -17508,7 +17508,7 @@
         <v>0</v>
       </c>
       <c r="Q320">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="321" spans="1:18">
@@ -17558,7 +17558,7 @@
         <v>0</v>
       </c>
       <c r="Q321">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="322" spans="1:18">
@@ -17605,7 +17605,7 @@
         <v>0</v>
       </c>
       <c r="Q322">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="323" spans="1:18">
@@ -17652,7 +17652,7 @@
         <v>0</v>
       </c>
       <c r="Q323">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="324" spans="1:18">
@@ -17699,7 +17699,7 @@
         <v>0</v>
       </c>
       <c r="Q324">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="325" spans="1:18">
@@ -17749,7 +17749,7 @@
         <v>1</v>
       </c>
       <c r="Q325">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="R325">
         <v>33</v>
@@ -17799,7 +17799,7 @@
         <v>0</v>
       </c>
       <c r="Q326">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="327" spans="1:18">
@@ -17849,7 +17849,7 @@
         <v>0</v>
       </c>
       <c r="Q327">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="328" spans="1:18">
@@ -17896,7 +17896,7 @@
         <v>0</v>
       </c>
       <c r="Q328">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="329" spans="1:18">
@@ -17943,7 +17943,7 @@
         <v>0</v>
       </c>
       <c r="Q329">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="330" spans="1:18">
@@ -17990,7 +17990,7 @@
         <v>0</v>
       </c>
       <c r="Q330">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="331" spans="1:18">
@@ -18037,7 +18037,7 @@
         <v>0</v>
       </c>
       <c r="Q331">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="332" spans="1:18">
@@ -18087,7 +18087,7 @@
         <v>1</v>
       </c>
       <c r="Q332">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R332">
         <v>17</v>
@@ -18137,7 +18137,7 @@
         <v>0</v>
       </c>
       <c r="Q333">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="334" spans="1:18">
@@ -18181,7 +18181,7 @@
         <v>0</v>
       </c>
       <c r="Q334">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="335" spans="1:18">
@@ -18228,7 +18228,7 @@
         <v>0</v>
       </c>
       <c r="Q335">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="336" spans="1:18">
@@ -18275,7 +18275,7 @@
         <v>0</v>
       </c>
       <c r="Q336">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="337" spans="1:18">
@@ -18325,7 +18325,7 @@
         <v>1</v>
       </c>
       <c r="Q337">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R337">
         <v>24</v>
@@ -18378,7 +18378,7 @@
         <v>1</v>
       </c>
       <c r="Q338">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R338">
         <v>17</v>
@@ -18431,7 +18431,7 @@
         <v>0</v>
       </c>
       <c r="Q339">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="340" spans="1:18">
@@ -18478,7 +18478,7 @@
         <v>0</v>
       </c>
       <c r="Q340">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="341" spans="1:18">
@@ -18525,7 +18525,7 @@
         <v>0</v>
       </c>
       <c r="Q341">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="342" spans="1:18">
@@ -18575,7 +18575,7 @@
         <v>1</v>
       </c>
       <c r="Q342">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R342">
         <v>26</v>
@@ -18625,7 +18625,7 @@
         <v>0</v>
       </c>
       <c r="Q343">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="344" spans="1:18">
@@ -18672,7 +18672,7 @@
         <v>0</v>
       </c>
       <c r="Q344">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="345" spans="1:18">
@@ -18722,7 +18722,7 @@
         <v>0</v>
       </c>
       <c r="Q345">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="346" spans="1:18">
@@ -18769,7 +18769,7 @@
         <v>0</v>
       </c>
       <c r="Q346">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="347" spans="1:18">
@@ -18816,7 +18816,7 @@
         <v>0</v>
       </c>
       <c r="Q347">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="348" spans="1:18">
@@ -18863,7 +18863,7 @@
         <v>0</v>
       </c>
       <c r="Q348">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="349" spans="1:18">
@@ -18913,7 +18913,7 @@
         <v>1</v>
       </c>
       <c r="Q349">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R349">
         <v>15</v>
@@ -18966,7 +18966,7 @@
         <v>1</v>
       </c>
       <c r="Q350">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="R350">
         <v>10</v>
@@ -19019,7 +19019,7 @@
         <v>0</v>
       </c>
       <c r="Q351">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="352" spans="1:18">
@@ -19069,7 +19069,7 @@
         <v>1</v>
       </c>
       <c r="Q352">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R352">
         <v>14</v>
@@ -19122,7 +19122,7 @@
         <v>0</v>
       </c>
       <c r="Q353">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="354" spans="1:18">
@@ -19169,7 +19169,7 @@
         <v>0</v>
       </c>
       <c r="Q354">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="355" spans="1:18">
@@ -19216,7 +19216,7 @@
         <v>0</v>
       </c>
       <c r="Q355">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="356" spans="1:18">
@@ -19263,7 +19263,7 @@
         <v>0</v>
       </c>
       <c r="Q356">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="357" spans="1:18">
@@ -19310,7 +19310,7 @@
         <v>0</v>
       </c>
       <c r="Q357">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="358" spans="1:18">
@@ -19357,7 +19357,7 @@
         <v>0</v>
       </c>
       <c r="Q358">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="359" spans="1:18">
@@ -19404,7 +19404,7 @@
         <v>0</v>
       </c>
       <c r="Q359">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="360" spans="1:18">
@@ -19451,7 +19451,7 @@
         <v>0</v>
       </c>
       <c r="Q360">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="361" spans="1:18">
@@ -19501,7 +19501,7 @@
         <v>1</v>
       </c>
       <c r="Q361">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="R361">
         <v>9</v>
@@ -19551,7 +19551,7 @@
         <v>0</v>
       </c>
       <c r="Q362">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="363" spans="1:18">
@@ -19598,7 +19598,7 @@
         <v>0</v>
       </c>
       <c r="Q363">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="364" spans="1:18">
@@ -19648,7 +19648,7 @@
         <v>1</v>
       </c>
       <c r="Q364">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="R364">
         <v>12</v>
@@ -19698,7 +19698,7 @@
         <v>0</v>
       </c>
       <c r="Q365">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="366" spans="1:18">
@@ -19748,7 +19748,7 @@
         <v>1</v>
       </c>
       <c r="Q366">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R366">
         <v>24</v>
@@ -19798,7 +19798,7 @@
         <v>0</v>
       </c>
       <c r="Q367">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="368" spans="1:18">
@@ -19848,7 +19848,7 @@
         <v>1</v>
       </c>
       <c r="Q368">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R368">
         <v>12</v>
@@ -19901,7 +19901,7 @@
         <v>0</v>
       </c>
       <c r="Q369">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="370" spans="1:18">
@@ -19951,7 +19951,7 @@
         <v>1</v>
       </c>
       <c r="Q370">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="R370">
         <v>14</v>
@@ -20001,7 +20001,7 @@
         <v>0</v>
       </c>
       <c r="Q371">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="372" spans="1:18">
@@ -20051,7 +20051,7 @@
         <v>1</v>
       </c>
       <c r="Q372">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R372">
         <v>10</v>
@@ -20101,7 +20101,7 @@
         <v>0</v>
       </c>
       <c r="Q373">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="374" spans="1:18">
@@ -20151,7 +20151,7 @@
         <v>1</v>
       </c>
       <c r="Q374">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="R374">
         <v>27</v>
@@ -20204,7 +20204,7 @@
         <v>0</v>
       </c>
       <c r="Q375">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="376" spans="1:18">
@@ -20254,7 +20254,7 @@
         <v>1</v>
       </c>
       <c r="Q376">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="R376">
         <v>12</v>
@@ -20307,7 +20307,7 @@
         <v>1</v>
       </c>
       <c r="Q377">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="R377">
         <v>1</v>
@@ -20357,7 +20357,7 @@
         <v>0</v>
       </c>
       <c r="Q378">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="379" spans="1:18">
@@ -20404,7 +20404,7 @@
         <v>0</v>
       </c>
       <c r="Q379">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="380" spans="1:18">
@@ -20451,7 +20451,7 @@
         <v>0</v>
       </c>
       <c r="Q380">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="381" spans="1:18">
@@ -20498,7 +20498,7 @@
         <v>0</v>
       </c>
       <c r="Q381">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="382" spans="1:18">
@@ -20548,7 +20548,7 @@
         <v>1</v>
       </c>
       <c r="Q382">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R382">
         <v>7</v>
@@ -20601,7 +20601,7 @@
         <v>1</v>
       </c>
       <c r="Q383">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="R383">
         <v>2</v>
@@ -20654,7 +20654,7 @@
         <v>0</v>
       </c>
       <c r="Q384">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="385" spans="1:18">
@@ -20704,7 +20704,7 @@
         <v>1</v>
       </c>
       <c r="Q385">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="R385">
         <v>7</v>
@@ -20754,7 +20754,7 @@
         <v>0</v>
       </c>
       <c r="Q386">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="387" spans="1:18">
@@ -20801,7 +20801,7 @@
         <v>0</v>
       </c>
       <c r="Q387">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="388" spans="1:18">
@@ -20848,7 +20848,7 @@
         <v>0</v>
       </c>
       <c r="Q388">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="389" spans="1:18">
@@ -20895,7 +20895,7 @@
         <v>0</v>
       </c>
       <c r="Q389">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="390" spans="1:18">
@@ -20942,7 +20942,7 @@
         <v>0</v>
       </c>
       <c r="Q390">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="391" spans="1:18">
@@ -20989,7 +20989,7 @@
         <v>0</v>
       </c>
       <c r="Q391">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="392" spans="1:18">
@@ -21039,7 +21039,7 @@
         <v>1</v>
       </c>
       <c r="Q392">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="R392">
         <v>8</v>
@@ -21092,7 +21092,7 @@
         <v>1</v>
       </c>
       <c r="Q393">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="R393">
         <v>12</v>
@@ -21145,7 +21145,7 @@
         <v>0</v>
       </c>
       <c r="Q394">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="395" spans="1:18">
@@ -21192,7 +21192,7 @@
         <v>0</v>
       </c>
       <c r="Q395">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="396" spans="1:18">
@@ -21239,7 +21239,7 @@
         <v>0</v>
       </c>
       <c r="Q396">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="397" spans="1:18">
@@ -21286,7 +21286,7 @@
         <v>0</v>
       </c>
       <c r="Q397">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="398" spans="1:18">
@@ -21336,7 +21336,7 @@
         <v>1</v>
       </c>
       <c r="Q398">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="R398">
         <v>27</v>
@@ -21386,7 +21386,7 @@
         <v>0</v>
       </c>
       <c r="Q399">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="400" spans="1:18">
@@ -21433,7 +21433,7 @@
         <v>0</v>
       </c>
       <c r="Q400">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="401" spans="1:18">
@@ -21483,7 +21483,7 @@
         <v>1</v>
       </c>
       <c r="Q401">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="R401">
         <v>38</v>
@@ -21536,7 +21536,7 @@
         <v>0</v>
       </c>
       <c r="Q402">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="403" spans="1:18">
@@ -21586,7 +21586,7 @@
         <v>1</v>
       </c>
       <c r="Q403">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="R403">
         <v>7</v>
@@ -21636,7 +21636,7 @@
         <v>0</v>
       </c>
       <c r="Q404">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="405" spans="1:18">
@@ -21683,7 +21683,7 @@
         <v>0</v>
       </c>
       <c r="Q405">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="406" spans="1:18">
@@ -21730,7 +21730,7 @@
         <v>0</v>
       </c>
       <c r="Q406">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="407" spans="1:18">
@@ -21777,7 +21777,7 @@
         <v>0</v>
       </c>
       <c r="Q407">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="408" spans="1:18">
@@ -21827,7 +21827,7 @@
         <v>1</v>
       </c>
       <c r="Q408">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="R408">
         <v>39</v>
@@ -21880,7 +21880,7 @@
         <v>0</v>
       </c>
       <c r="Q409">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="410" spans="1:18">
@@ -21930,7 +21930,7 @@
         <v>1</v>
       </c>
       <c r="Q410">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="R410">
         <v>15</v>
@@ -21986,7 +21986,7 @@
         <v>1</v>
       </c>
       <c r="Q411">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="R411">
         <v>5</v>
@@ -22030,10 +22030,10 @@
         <v>1</v>
       </c>
       <c r="P412" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q412">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="413" spans="1:18">
@@ -22074,10 +22074,10 @@
         <v>1</v>
       </c>
       <c r="P413" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q413">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="414" spans="1:18">
@@ -22127,7 +22127,7 @@
         <v>1</v>
       </c>
       <c r="Q414">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="R414">
         <v>16</v>
@@ -22180,7 +22180,7 @@
         <v>1</v>
       </c>
       <c r="Q415">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="R415">
         <v>16</v>
@@ -22233,7 +22233,7 @@
         <v>0</v>
       </c>
       <c r="Q416">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="417" spans="1:18">
@@ -22283,7 +22283,7 @@
         <v>1</v>
       </c>
       <c r="Q417">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="R417">
         <v>20</v>
@@ -22336,7 +22336,7 @@
         <v>0</v>
       </c>
       <c r="Q418">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="419" spans="1:18">
@@ -22383,7 +22383,7 @@
         <v>0</v>
       </c>
       <c r="Q419">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="420" spans="1:18">
@@ -22430,7 +22430,7 @@
         <v>0</v>
       </c>
       <c r="Q420">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="421" spans="1:18">
@@ -22477,7 +22477,7 @@
         <v>0</v>
       </c>
       <c r="Q421">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="422" spans="1:18">
@@ -22524,7 +22524,7 @@
         <v>0</v>
       </c>
       <c r="Q422">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="423" spans="1:18">
@@ -22574,7 +22574,7 @@
         <v>1</v>
       </c>
       <c r="Q423">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="R423">
         <v>17</v>
@@ -22627,7 +22627,7 @@
         <v>1</v>
       </c>
       <c r="Q424">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="R424">
         <v>7</v>
@@ -22677,7 +22677,7 @@
         <v>0</v>
       </c>
       <c r="Q425">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="426" spans="1:18">
@@ -22727,7 +22727,7 @@
         <v>1</v>
       </c>
       <c r="Q426">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="R426">
         <v>21</v>
@@ -22777,7 +22777,7 @@
         <v>0</v>
       </c>
       <c r="Q427">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="428" spans="1:18">
@@ -22827,7 +22827,7 @@
         <v>1</v>
       </c>
       <c r="Q428">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="R428">
         <v>12</v>
@@ -22877,7 +22877,7 @@
         <v>0</v>
       </c>
       <c r="Q429">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="430" spans="1:18">
@@ -22927,7 +22927,7 @@
         <v>0</v>
       </c>
       <c r="Q430">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="431" spans="1:18">
@@ -22974,7 +22974,7 @@
         <v>0</v>
       </c>
       <c r="Q431">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="432" spans="1:18">
@@ -23024,7 +23024,7 @@
         <v>0</v>
       </c>
       <c r="Q432">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="433" spans="1:18">
@@ -23074,7 +23074,7 @@
         <v>1</v>
       </c>
       <c r="Q433">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="R433">
         <v>11</v>
@@ -23124,7 +23124,7 @@
         <v>0</v>
       </c>
       <c r="Q434">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="435" spans="1:18">
@@ -23174,7 +23174,7 @@
         <v>1</v>
       </c>
       <c r="Q435">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="R435">
         <v>4</v>
@@ -23227,7 +23227,7 @@
         <v>0</v>
       </c>
       <c r="Q436">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="437" spans="1:18">
@@ -23274,7 +23274,7 @@
         <v>0</v>
       </c>
       <c r="Q437">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="438" spans="1:18">
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="Q438">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="439" spans="1:18">
@@ -23368,7 +23368,7 @@
         <v>0</v>
       </c>
       <c r="Q439">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="440" spans="1:18">
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="Q440">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="441" spans="1:18">
@@ -23468,7 +23468,7 @@
         <v>1</v>
       </c>
       <c r="Q441">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="R441">
         <v>20</v>
@@ -23521,7 +23521,7 @@
         <v>0</v>
       </c>
       <c r="Q442">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="443" spans="1:18">
@@ -23571,7 +23571,7 @@
         <v>1</v>
       </c>
       <c r="Q443">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="R443">
         <v>15</v>
@@ -23624,7 +23624,7 @@
         <v>0</v>
       </c>
       <c r="Q444">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="445" spans="1:18">
@@ -23674,7 +23674,7 @@
         <v>1</v>
       </c>
       <c r="Q445">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R445">
         <v>11</v>
@@ -23724,7 +23724,7 @@
         <v>0</v>
       </c>
       <c r="Q446">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="447" spans="1:18">
@@ -23768,7 +23768,7 @@
         <v>0</v>
       </c>
       <c r="Q447">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="448" spans="1:18">
@@ -23815,7 +23815,7 @@
         <v>0</v>
       </c>
       <c r="Q448">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="449" spans="1:18">
@@ -23862,7 +23862,7 @@
         <v>0</v>
       </c>
       <c r="Q449">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="450" spans="1:18">
@@ -23909,7 +23909,7 @@
         <v>0</v>
       </c>
       <c r="Q450">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="451" spans="1:18">
@@ -23959,7 +23959,7 @@
         <v>0</v>
       </c>
       <c r="Q451">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="452" spans="1:18">
@@ -24006,7 +24006,7 @@
         <v>0</v>
       </c>
       <c r="Q452">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="453" spans="1:18">
@@ -24056,7 +24056,7 @@
         <v>0</v>
       </c>
       <c r="Q453">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="454" spans="1:18">
@@ -24106,7 +24106,7 @@
         <v>1</v>
       </c>
       <c r="Q454">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R454">
         <v>42</v>
@@ -24159,7 +24159,7 @@
         <v>0</v>
       </c>
       <c r="Q455">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="456" spans="1:18">
@@ -24206,7 +24206,7 @@
         <v>0</v>
       </c>
       <c r="Q456">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="457" spans="1:18">
@@ -24259,7 +24259,7 @@
         <v>1</v>
       </c>
       <c r="Q457">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="R457">
         <v>19</v>
@@ -24309,7 +24309,7 @@
         <v>0</v>
       </c>
       <c r="Q458">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="459" spans="1:18">
@@ -24356,7 +24356,7 @@
         <v>0</v>
       </c>
       <c r="Q459">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="460" spans="1:18">
@@ -24403,7 +24403,7 @@
         <v>0</v>
       </c>
       <c r="Q460">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="461" spans="1:18">
@@ -24453,7 +24453,7 @@
         <v>1</v>
       </c>
       <c r="Q461">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="R461">
         <v>26</v>
@@ -24506,7 +24506,7 @@
         <v>0</v>
       </c>
       <c r="Q462">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="463" spans="1:18">
@@ -24556,7 +24556,7 @@
         <v>1</v>
       </c>
       <c r="Q463">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="R463">
         <v>9</v>
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="Q464">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="465" spans="1:18">
@@ -24653,7 +24653,7 @@
         <v>0</v>
       </c>
       <c r="Q465">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="466" spans="1:18">
@@ -24703,7 +24703,7 @@
         <v>0</v>
       </c>
       <c r="Q466">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="467" spans="1:18">
@@ -24753,7 +24753,7 @@
         <v>1</v>
       </c>
       <c r="Q467">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R467">
         <v>25</v>
@@ -24803,7 +24803,7 @@
         <v>0</v>
       </c>
       <c r="Q468">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="469" spans="1:18">
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="Q469">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="470" spans="1:18">
@@ -24903,7 +24903,7 @@
         <v>1</v>
       </c>
       <c r="Q470">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R470">
         <v>10</v>
@@ -24956,7 +24956,7 @@
         <v>1</v>
       </c>
       <c r="Q471">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="R471">
         <v>18</v>
@@ -25006,7 +25006,7 @@
         <v>0</v>
       </c>
       <c r="Q472">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="473" spans="1:18">
@@ -25053,7 +25053,7 @@
         <v>0</v>
       </c>
       <c r="Q473">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="474" spans="1:18">
@@ -25103,7 +25103,7 @@
         <v>0</v>
       </c>
       <c r="Q474">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="475" spans="1:18">
@@ -25153,7 +25153,7 @@
         <v>1</v>
       </c>
       <c r="Q475">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="R475">
         <v>30</v>
@@ -25203,7 +25203,7 @@
         <v>0</v>
       </c>
       <c r="Q476">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="477" spans="1:18">
@@ -25250,7 +25250,7 @@
         <v>0</v>
       </c>
       <c r="Q477">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="478" spans="1:18">
@@ -25297,7 +25297,7 @@
         <v>0</v>
       </c>
       <c r="Q478">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="479" spans="1:18">
@@ -25344,7 +25344,7 @@
         <v>0</v>
       </c>
       <c r="Q479">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="480" spans="1:18">
@@ -25391,7 +25391,7 @@
         <v>0</v>
       </c>
       <c r="Q480">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="481" spans="1:18">
@@ -25438,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="Q481">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="482" spans="1:18">
@@ -25485,7 +25485,7 @@
         <v>0</v>
       </c>
       <c r="Q482">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="483" spans="1:18">
@@ -25535,7 +25535,7 @@
         <v>0</v>
       </c>
       <c r="Q483">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="484" spans="1:18">
@@ -25585,7 +25585,7 @@
         <v>1</v>
       </c>
       <c r="Q484">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R484">
         <v>8</v>
@@ -25632,7 +25632,7 @@
         <v>0</v>
       </c>
       <c r="Q485">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="486" spans="1:18">
@@ -25679,7 +25679,7 @@
         <v>0</v>
       </c>
       <c r="Q486">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="487" spans="1:18">
@@ -25726,7 +25726,7 @@
         <v>0</v>
       </c>
       <c r="Q487">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="488" spans="1:18">
@@ -25776,7 +25776,7 @@
         <v>1</v>
       </c>
       <c r="Q488">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="R488">
         <v>28</v>
@@ -25826,7 +25826,7 @@
         <v>0</v>
       </c>
       <c r="Q489">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="490" spans="1:18">
@@ -25876,7 +25876,7 @@
         <v>1</v>
       </c>
       <c r="Q490">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="R490">
         <v>16</v>
@@ -25926,7 +25926,7 @@
         <v>0</v>
       </c>
       <c r="Q491">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="492" spans="1:18">
@@ -25976,7 +25976,7 @@
         <v>1</v>
       </c>
       <c r="Q492">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="R492">
         <v>20</v>
@@ -26026,7 +26026,7 @@
         <v>0</v>
       </c>
       <c r="Q493">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="494" spans="1:18">
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="Q494">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="495" spans="1:18">
@@ -26120,7 +26120,7 @@
         <v>0</v>
       </c>
       <c r="Q495">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="496" spans="1:18">
@@ -26167,7 +26167,7 @@
         <v>0</v>
       </c>
       <c r="Q496">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="497" spans="1:18">
@@ -26211,7 +26211,7 @@
         <v>0</v>
       </c>
       <c r="Q497">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="498" spans="1:18">
@@ -26261,7 +26261,7 @@
         <v>1</v>
       </c>
       <c r="Q498">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="R498">
         <v>27</v>
@@ -26311,7 +26311,7 @@
         <v>0</v>
       </c>
       <c r="Q499">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="500" spans="1:18">
@@ -26361,7 +26361,7 @@
         <v>1</v>
       </c>
       <c r="Q500">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="R500">
         <v>15</v>
@@ -26411,7 +26411,7 @@
         <v>0</v>
       </c>
       <c r="Q501">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="502" spans="1:18">
@@ -26461,7 +26461,7 @@
         <v>1</v>
       </c>
       <c r="Q502">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="R502">
         <v>10</v>
@@ -26511,7 +26511,7 @@
         <v>0</v>
       </c>
       <c r="Q503">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="504" spans="1:18">
@@ -26561,7 +26561,7 @@
         <v>0</v>
       </c>
       <c r="Q504">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="505" spans="1:18">
@@ -26608,7 +26608,7 @@
         <v>0</v>
       </c>
       <c r="Q505">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="506" spans="1:18">
@@ -26658,7 +26658,7 @@
         <v>0</v>
       </c>
       <c r="Q506">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="507" spans="1:18">
@@ -26708,7 +26708,7 @@
         <v>1</v>
       </c>
       <c r="Q507">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="R507">
         <v>29</v>
@@ -26761,7 +26761,7 @@
         <v>0</v>
       </c>
       <c r="Q508">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="509" spans="1:18">
@@ -26808,7 +26808,7 @@
         <v>0</v>
       </c>
       <c r="Q509">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="510" spans="1:18">
@@ -26855,7 +26855,7 @@
         <v>0</v>
       </c>
       <c r="Q510">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="511" spans="1:18">
@@ -26902,7 +26902,7 @@
         <v>0</v>
       </c>
       <c r="Q511">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="512" spans="1:18">
@@ -26949,7 +26949,7 @@
         <v>0</v>
       </c>
       <c r="Q512">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="513" spans="1:18">
@@ -26996,7 +26996,7 @@
         <v>0</v>
       </c>
       <c r="Q513">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="514" spans="1:18">
@@ -27046,7 +27046,7 @@
         <v>1</v>
       </c>
       <c r="Q514">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="R514">
         <v>24</v>
@@ -27096,7 +27096,7 @@
         <v>0</v>
       </c>
       <c r="Q515">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="516" spans="1:18">
@@ -27143,7 +27143,7 @@
         <v>0</v>
       </c>
       <c r="Q516">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="517" spans="1:18">
@@ -27193,7 +27193,7 @@
         <v>1</v>
       </c>
       <c r="Q517">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="R517">
         <v>16</v>
@@ -27243,7 +27243,7 @@
         <v>0</v>
       </c>
       <c r="Q518">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="519" spans="1:18">
@@ -27293,7 +27293,7 @@
         <v>1</v>
       </c>
       <c r="Q519">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="R519">
         <v>3</v>
@@ -27343,7 +27343,7 @@
         <v>0</v>
       </c>
       <c r="Q520">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="521" spans="1:18">
@@ -27393,7 +27393,7 @@
         <v>1</v>
       </c>
       <c r="Q521">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="R521">
         <v>3</v>
@@ -27440,7 +27440,7 @@
         <v>0</v>
       </c>
       <c r="Q522">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="523" spans="1:18">
@@ -27487,7 +27487,7 @@
         <v>0</v>
       </c>
       <c r="Q523">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="524" spans="1:18">
@@ -27537,7 +27537,7 @@
         <v>0</v>
       </c>
       <c r="Q524">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="525" spans="1:18">
@@ -27587,7 +27587,7 @@
         <v>1</v>
       </c>
       <c r="Q525">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="R525">
         <v>32</v>
@@ -27637,7 +27637,7 @@
         <v>0</v>
       </c>
       <c r="Q526">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="527" spans="1:18">
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Q527">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="528" spans="1:18">
@@ -27731,7 +27731,7 @@
         <v>0</v>
       </c>
       <c r="Q528">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="529" spans="1:18">
@@ -27784,7 +27784,7 @@
         <v>1</v>
       </c>
       <c r="Q529">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="R529">
         <v>5</v>
@@ -27837,7 +27837,7 @@
         <v>1</v>
       </c>
       <c r="Q530">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="R530">
         <v>0</v>
@@ -27887,7 +27887,7 @@
         <v>0</v>
       </c>
       <c r="Q531">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="532" spans="1:18">
@@ -27934,7 +27934,7 @@
         <v>0</v>
       </c>
       <c r="Q532">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="533" spans="1:18">
@@ -27981,7 +27981,7 @@
         <v>0</v>
       </c>
       <c r="Q533">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="534" spans="1:18">
@@ -28031,7 +28031,7 @@
         <v>1</v>
       </c>
       <c r="Q534">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="R534">
         <v>5</v>
@@ -28081,7 +28081,7 @@
         <v>0</v>
       </c>
       <c r="Q535">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="536" spans="1:18">
@@ -28128,7 +28128,7 @@
         <v>0</v>
       </c>
       <c r="Q536">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="537" spans="1:18">
@@ -28175,7 +28175,7 @@
         <v>0</v>
       </c>
       <c r="Q537">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="538" spans="1:18">
@@ -28222,7 +28222,7 @@
         <v>0</v>
       </c>
       <c r="Q538">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="539" spans="1:18">
@@ -28272,7 +28272,7 @@
         <v>1</v>
       </c>
       <c r="Q539">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="R539">
         <v>7</v>
@@ -28325,7 +28325,7 @@
         <v>1</v>
       </c>
       <c r="Q540">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="R540">
         <v>0</v>
@@ -28369,10 +28369,10 @@
         <v>1</v>
       </c>
       <c r="P541" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q541">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="542" spans="1:18">
@@ -28413,7 +28413,7 @@
         <v>0</v>
       </c>
       <c r="Q542">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
